--- a/docs/ST4/ST4_02.08.24_output.xlsx
+++ b/docs/ST4/ST4_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3799 +505,4499 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731443081.9420173</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731443082.6210237</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443081.9420173.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443082.6210237.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>285.41</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>286.49</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.079999999999984</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731443085.180489</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731443089.1719408</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443085.180489.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443089.1719408.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>285.36</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>285.58</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2199999999999704</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731443089.1859007</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731443095.9745178</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443089.1859007.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443095.9745178.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>285.58</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>284.52</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.060000000000002</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731443108.525926</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731443110.8310215</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443108.525926.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443110.8310215.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>285.4</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>285.68</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2800000000000296</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731443112.7277389</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731443112.7277389.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731443112.7277389.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>286.15</v>
       </c>
-      <c r="J7" t="n">
-        <v>286.15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>286.24</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.09000000000003183</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731443113.2837899</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731443114.4347482</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443113.2837899.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443114.4347482.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.71</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.29</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731443117.498701</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731443122.5817804</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443117.498701.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443122.5817804.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>131.54</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>131.27</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.2699999999999818</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731443123.9966717</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731443126.5778</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443123.9966717.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443126.5778.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>130.83</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>130.67</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.160000000000025</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731443128.4294696</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731443133.7746844</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443128.4294696.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443133.7746844.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>130.27</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>131.94</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.669999999999987</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731443139.0529478</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731443140.7802794</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443139.0529478.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443140.7802794.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>130.74</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>131.14</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731443145.3554823</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731443146.023085</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443145.3554823.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443146.023085.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6657.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6677.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731443155.3861606</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731443157.1815271</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443155.3861606.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443157.1815271.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6607.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6622.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>15</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731443157.196486</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731443163.6822212</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443157.196486.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443163.6822212.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6622.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6634.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-12</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731443168.9094994</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731443169.3204954</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443168.9094994.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443169.3204954.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6590</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6600</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731443181.2696116</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731443187.661632</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443181.2696116.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443187.661632.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>507.25</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>505.6</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-1.649999999999977</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731443193.0342188</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731443195.2420506</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443193.0342188.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443195.2420506.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>504.1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>505</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731443195.5704</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731443195.982177</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443195.5704.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443195.982177.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>504.1</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>504.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731443196.833856</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731443197.1217604</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443196.833856.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443197.1217604.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>504.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>504.45</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731443199.9919891</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731443200.0489874</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443199.9919891.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443200.0489874.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>504.25</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>504.35</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731443202.6473937</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731443203.2502794</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443202.6473937.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443203.2502794.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>228.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>229.07</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.7699999999999818</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731443213.3080194</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731443217.7757676</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443213.3080194.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443217.7757676.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>227.94</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>228.52</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.5800000000000125</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731443231.5983994</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731443232.140344</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443231.5983994.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443232.140344.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1028</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1033.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>5.799999999999955</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731443236.1472237</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731443240.3084133</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443236.1472237.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443240.3084133.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1029.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1026.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-2.600000000000136</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731443241.6828616</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731443247.7758985</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443241.6828616.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443247.7758985.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1023.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1021.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-1.600000000000023</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731443255.6584349</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731443256.149213</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443255.6584349.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443256.149213.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1018.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1021</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731443257.5096467</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731443258.1503732</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443257.5096467.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443258.1503732.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1019.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1999999999999318</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731443263.196935</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731443265.2073352</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731443263.196935.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731443265.2073352.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.855</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.865</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.009999999999999787</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731443266.6376574</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731443266.7255132</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731443266.6376574.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731443266.7255132.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.87</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>11.869</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.0009999999999994458</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731443266.7731535</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731443266.8791654</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731443266.7731535.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731443266.8791654.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.87</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.868</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.001999999999998892</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731443268.2248192</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731443271.8358715</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443268.2248192.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443271.8358715.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>128.18</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>128.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731443272.1549802</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731443276.4543028</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443272.1549802.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443276.4543028.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>128.04</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>127.88</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731443277.9054284</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731443279.886563</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443277.9054284.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443279.886563.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>127.5</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>128.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731443288.7691576</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731443289.6127918</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443288.7691576.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443289.6127918.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>127.84</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>127.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731443298.6634629</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731443299.099042</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443298.6634629.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443299.099042.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>164.22</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>165.18</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.960000000000008</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731443304.0817103</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731443304.982138</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443304.0817103.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443304.982138.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>163.86</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>164.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.539999999999992</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731443309.1582112</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731443315.056345</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443309.1582112.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443315.056345.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>164.02</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>164.84</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731443317.2126393</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731443317.424905</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443317.2126393.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443317.424905.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>166.98</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>166.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731443326.6240072</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731443326.8916078</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443326.6240072.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443326.8916078.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>165.02</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>165.04</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731443333.8639777</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731443335.8810427</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443333.8639777.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443335.8810427.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>50.38</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>50.425</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.0449999999999946</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731443340.7539287</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731443344.0626798</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443340.7539287.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443344.0626798.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>50.365</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>50.39</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731443344.5307596</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731443347.3334816</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443344.5307596.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443347.3334816.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>50.265</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>50.4</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.134999999999998</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731443357.973239</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731443358.687315</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443357.973239.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443358.687315.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>50.4</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.405</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731443364.0405297</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731443367.735485</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443364.0405297.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443367.735485.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1405.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1405.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1999999999998181</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731443370.049155</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731443371.5395036</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443370.049155.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443371.5395036.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1403.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1405</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731443374.7725518</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731443375.821683</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443374.7725518.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443375.821683.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1397.6</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1400.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731443377.2852767</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731443379.5392141</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443377.2852767.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443379.5392141.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1402.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1406.2</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-3.400000000000091</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731443380.4642837</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731443383.9927568</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443380.4642837.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443383.9927568.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1393.2</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1399.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>6.599999999999909</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731443399.0379498</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731443406.2719002</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731443399.0379498.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731443406.2719002.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>60.38</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>60.41</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02999999999999403</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731443425.9675765</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731443439.0877116</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443425.9675765.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443439.0877116.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>56.92</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>57.15</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.2299999999999969</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731443443.7620757</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731443444.3176625</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443443.7620757.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443444.3176625.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>56.77</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>56.97</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1999999999999957</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731443447.902724</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731443449.0782483</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443447.902724.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443449.0782483.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>56.88</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>56.78</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731443449.093717</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731443450.263652</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443449.093717.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443450.263652.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>56.78</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>56.88</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731443452.1841426</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731443452.602945</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443452.1841426.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443452.602945.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>57.07</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>57.12</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731443453.4999464</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731443453.7310839</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443453.4999464.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443453.7310839.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>142.5</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>144.26</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>1.759999999999991</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731443458.5869777</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731443459.4352024</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443458.5869777.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443459.4352024.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>142.6</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>142.98</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731443459.635362</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731443459.8395789</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443459.635362.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443459.8395789.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>142.62</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>142.78</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731443470.7370112</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731443471.2809331</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443470.7370112.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443471.2809331.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>146.18</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>147.04</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.8599999999999852</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731443477.695732</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731443477.854935</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443477.695732.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443477.854935.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>144.5</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>144.7</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731443478.185962</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731443478.2391489</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443478.185962.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443478.2391489.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>144.52</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>144.66</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731443481.179187</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731443481.5135498</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443481.179187.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443481.5135498.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>145.98</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>145.22</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.7599999999999909</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731443487.8863883</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731443490.8517382</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443487.8863883.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443490.8517382.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>20.701</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>20.743</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.04199999999999804</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731443503.909791</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731443504.4413135</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443503.909791.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443504.4413135.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>20.672</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>20.761</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.08899999999999864</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731443510.5402317</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731443511.3201787</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443510.5402317.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443511.3201787.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>20.928</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>20.855</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.0730000000000004</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731443512.834561</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731443513.9619384</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443512.834561.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443513.9619384.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>676</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>676.1</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731443514.8948085</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731443515.0657883</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443514.8948085.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443515.0657883.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>675.15</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>676.4</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731443517.4192655</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731443520.0181432</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443517.4192655.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443520.0181432.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>675</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>674.05</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.9500000000000455</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731443526.936145</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731443530.4360795</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443526.936145.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443530.4360795.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>663.8</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>666.25</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>2.450000000000045</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731443530.4520102</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731443534.108925</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443530.4520102.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443534.108925.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>666.25</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>673.15</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-6.899999999999977</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-1.04</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731443538.6415603</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731443541.6444626</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443538.6415603.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443541.6444626.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>674</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>676.45</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-2.450000000000045</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731443541.6604223</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731443541.6604223.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+          <t>./test_images/SIBN1731443541.6604223.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>676.45</v>
       </c>
-      <c r="J72" t="n">
-        <v>676.45</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
+      <c r="L72" t="n">
+        <v>677.45</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731443543.3511248</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731443543.549705</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443543.3511248.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443543.549705.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.09868</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.09914000000000001</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.0004600000000000021</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731443547.86341</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731443547.9516015</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443547.86341.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443547.9516015.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.10068</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.10024</v>
       </c>
-      <c r="K74" t="n">
-        <v>0.0004399999999999959</v>
+      <c r="M74" t="n">
+        <v>0.0004400000000000098</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731443555.3251717</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731443555.8387399</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443555.3251717.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443555.8387399.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.099</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.09944000000000001</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.0004400000000000098</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731443559.114416</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731443559.1672752</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443559.114416.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443559.1672752.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.09912000000000001</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.0004800000000000082</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731443562.12419</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731443562.3288343</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443562.12419.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443562.3288343.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.09896000000000001</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.0001000000000000029</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731443562.4868467</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731443563.1856503</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443562.4868467.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443563.1856503.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.09888000000000001</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.09904</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0001599999999999935</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731443565.6778922</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731443567.0594423</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443565.6778922.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443567.0594423.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.09882000000000001</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.09882000000000001</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4290,1021 +5005,1210 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731443567.7437341</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731443567.9308674</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443567.7437341.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443567.9308674.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.09882000000000001</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.0001999999999999919</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731443572.1989772</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731443573.2771237</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443572.1989772.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443573.2771237.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0.597</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.5989</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.001900000000000013</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731443577.4241157</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731443579.4090822</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443577.4241157.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443579.4090822.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.5964</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.5993000000000001</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.002900000000000014</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731443582.285877</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731443583.8810818</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443582.285877.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443583.8810818.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.5976</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.6016</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.004000000000000004</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731443598.7573726</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731443599.0659556</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443598.7573726.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443599.0659556.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>2981.65</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>2983.75</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>2.099999999999909</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731443603.1123583</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731443603.3493822</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443603.1123583.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443603.3493822.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>2980.05</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>2984.1</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>4.049999999999727</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731443603.8077703</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731443604.4658358</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443603.8077703.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443604.4658358.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>2975.4</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>2973.95</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-1.450000000000273</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731443604.670651</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731443605.276728</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443604.670651.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443605.276728.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>2974.85</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>2971.1</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>3.75</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731443605.2937884</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731443605.708534</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443605.2937884.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443605.708534.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>2971.1</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>2977.65</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>6.550000000000182</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731443606.5495105</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731443607.3224268</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443606.5495105.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443607.3224268.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>2971.95</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>2974.15</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>2.200000000000273</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731443608.9736195</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731443610.5814528</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443608.9736195.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443610.5814528.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>2970.3</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>2962.35</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-7.950000000000273</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731443612.379835</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731443613.002664</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443612.379835.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443613.002664.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2959.05</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>2960</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.9499999999998181</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731443617.1158268</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731443617.9377315</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443617.1158268.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443617.9377315.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>2973.4</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>2980.4</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-7</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731443618.296786</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731443618.7416046</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443618.296786.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443618.7416046.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>2985.65</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2984.15</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731443621.0496306</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731443623.5465508</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443621.0496306.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443623.5465508.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2959.35</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2966.8</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>7.450000000000273</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731443627.5304193</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731443627.7517052</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443627.5304193.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443627.7517052.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2966</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>2964.05</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>1.949999999999818</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731443628.3552127</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731443628.482933</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443628.3552127.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443628.482933.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2966</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>2965.85</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.1500000000000909</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731443629.2451327</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731443629.2451327.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731443629.2451327.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2967.15</v>
       </c>
-      <c r="J97" t="n">
-        <v>2967.15</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
+      <c r="L97" t="n">
+        <v>2965.3</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.849999999999909</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731443632.959592</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731443633.3985476</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443632.959592.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443633.3985476.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>34.425</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>34.505</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.0800000000000054</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731443634.2510548</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731443637.1431866</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443634.2510548.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443637.1431866.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>34.365</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>34.24</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.125</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731443641.1635878</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731443645.879256</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443641.1635878.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443645.879256.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>34.095</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>34.23</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.134999999999998</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -5318,7 +6222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5347,6 +6251,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5355,13 +6269,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.24999999999955</v>
+        <v>16.09999999999945</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.01785714285711</v>
+        <v>1.149999999999961</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -5371,13 +6291,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002280000000000004</v>
+        <v>0.002280000000000018</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002850000000000005</v>
+        <v>0.0002850000000000023</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -5387,13 +6313,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.5</v>
+        <v>-5.5</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9285714285714286</v>
+        <v>-0.7857142857142857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="5">
@@ -5411,6 +6343,12 @@
       <c r="D5" t="n">
         <v>0.3628571428571377</v>
       </c>
+      <c r="E5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5427,6 +6365,12 @@
       <c r="D6" t="n">
         <v>0.03599999999999852</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5443,6 +6387,12 @@
       <c r="D7" t="n">
         <v>1.679999999999927</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5451,13 +6401,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.639999999999986</v>
+        <v>2.549999999999955</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5279999999999972</v>
+        <v>0.5099999999999909</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
@@ -5475,6 +6431,12 @@
       <c r="D9" t="n">
         <v>-0.2240000000000066</v>
       </c>
+      <c r="E9" t="n">
+        <v>-0.8599999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5491,6 +6453,12 @@
       <c r="D10" t="n">
         <v>0.06000000000000227</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.05999999999999997</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5507,6 +6475,12 @@
       <c r="D11" t="n">
         <v>0.7999999999999545</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5523,6 +6497,12 @@
       <c r="D12" t="n">
         <v>0.5839999999999919</v>
       </c>
+      <c r="E12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5539,6 +6519,12 @@
       <c r="D13" t="n">
         <v>0.04999999999999716</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5555,6 +6541,12 @@
       <c r="D14" t="n">
         <v>8.25</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5571,6 +6563,12 @@
       <c r="D15" t="n">
         <v>0.1799999999999962</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5587,6 +6585,12 @@
       <c r="D16" t="n">
         <v>0.002933333333333343</v>
       </c>
+      <c r="E16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5603,6 +6607,12 @@
       <c r="D17" t="n">
         <v>0.03000000000000114</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5619,6 +6629,12 @@
       <c r="D18" t="n">
         <v>0.004333333333332708</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5635,6 +6651,12 @@
       <c r="D19" t="n">
         <v>0.06799999999999902</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5651,6 +6673,12 @@
       <c r="D20" t="n">
         <v>0.09499999999998465</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5667,6 +6695,12 @@
       <c r="D21" t="n">
         <v>0.02999999999999403</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5681,6 +6715,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
